--- a/WIP/Users/LucPT/FAP_TestViewpoint_Edit profile_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Edit profile_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -280,10 +280,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$71</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$34</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$55</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$78</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$41</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$62</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$87</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -318,7 +318,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -477,7 +477,7 @@
     <definedName name="開発サーバＳＷ保守">#REF!</definedName>
     <definedName name="電話番号">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="212">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -995,18 +995,10 @@
     <t>Edit information</t>
   </si>
   <si>
-    <t>Edit profile</t>
-  </si>
-  <si>
     <t>Edit</t>
   </si>
   <si>
     <t>Edit profile Screen</t>
-  </si>
-  <si>
-    <t>- Web title: Thay đổi thông tin
-- Display normally, there is not push, breaking font
-- Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
     <t xml:space="preserve">Word that user input is displayed </t>
@@ -1024,33 +1016,12 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>Click "Profile" link  in header</t>
-  </si>
-  <si>
-    <t>Display profile page</t>
-  </si>
-  <si>
-    <t>Click "Edit Profile" button</t>
-  </si>
-  <si>
-    <t>Display Profile page with data entered and editable fields</t>
-  </si>
-  <si>
     <t>Input first name  in "First Name" textbox</t>
   </si>
   <si>
-    <t>Input last name in "Last Name" textbox</t>
-  </si>
-  <si>
     <t>Word that user input is displayed</t>
   </si>
   <si>
-    <t>Input Phone Number in "Phone Number" textbox</t>
-  </si>
-  <si>
-    <t>Input date of birth in "DOB" textbox</t>
-  </si>
-  <si>
     <t>Click "Male" ,"Female" or "Other" check box</t>
   </si>
   <si>
@@ -1066,24 +1037,15 @@
     <t>1.2.1.7</t>
   </si>
   <si>
-    <t>Input user name in "UserName" textbox</t>
-  </si>
-  <si>
     <t>1.2.1.8</t>
   </si>
   <si>
-    <t>Input email address in "Email Address" textbox</t>
-  </si>
-  <si>
     <t>1.2.1.9</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Input password in "Password" textbox</t>
-  </si>
-  <si>
     <t>Word that user input is displayed and characters must be hide</t>
   </si>
   <si>
@@ -1093,9 +1055,6 @@
     <t>Confirm Password</t>
   </si>
   <si>
-    <t>ReInput password in "Confirm Password" textbox</t>
-  </si>
-  <si>
     <t>1.2.1.11</t>
   </si>
   <si>
@@ -1111,31 +1070,18 @@
     <t>Edit Phone Number</t>
   </si>
   <si>
-    <t>Edit Date Of Birth</t>
-  </si>
-  <si>
     <t>Edit Gender</t>
   </si>
   <si>
     <t>Edit Address</t>
   </si>
   <si>
-    <t>Edit User Name</t>
-  </si>
-  <si>
-    <t>Edit Email Address</t>
-  </si>
-  <si>
     <t>Display message confirm successful</t>
   </si>
   <si>
     <t xml:space="preserve">Show error message </t>
   </si>
   <si>
-    <t xml:space="preserve">- Input correct information
-- Click "Edit" button </t>
-  </si>
-  <si>
     <t>FLY AWAY PLUS</t>
   </si>
   <si>
@@ -1152,6 +1098,135 @@
   </si>
   <si>
     <t>FAP_Software requirement specification_v1.0</t>
+  </si>
+  <si>
+    <t>Click "Profile" button  in header</t>
+  </si>
+  <si>
+    <t>Display  profile page</t>
+  </si>
+  <si>
+    <t>Input First Name</t>
+  </si>
+  <si>
+    <t>Save First Name</t>
+  </si>
+  <si>
+    <t>Click "OK" to save first name</t>
+  </si>
+  <si>
+    <t>First name will be changed</t>
+  </si>
+  <si>
+    <t>Click "Edit" on the right of first name button</t>
+  </si>
+  <si>
+    <t>Click "Edit" button on the right of last name</t>
+  </si>
+  <si>
+    <t>Display first name in textbox</t>
+  </si>
+  <si>
+    <t>Display last name in textbox</t>
+  </si>
+  <si>
+    <t>Input new last name in "Last Name" textbox</t>
+  </si>
+  <si>
+    <t>Save Last Name</t>
+  </si>
+  <si>
+    <t>Click "OK" to save last name</t>
+  </si>
+  <si>
+    <t>Last name will be changed</t>
+  </si>
+  <si>
+    <t>Input new Phone Number in "Phone Number" textbox</t>
+  </si>
+  <si>
+    <t>Click "Edit" button on the right of phone number</t>
+  </si>
+  <si>
+    <t>Display  textbox contains phone number</t>
+  </si>
+  <si>
+    <t>Save Phone Number</t>
+  </si>
+  <si>
+    <t>Click "OK" to save phone number</t>
+  </si>
+  <si>
+    <t>Phone number will be changed</t>
+  </si>
+  <si>
+    <t>Input new date of birth in "DOB" textbox</t>
+  </si>
+  <si>
+    <t>Save DOB</t>
+  </si>
+  <si>
+    <t>Click "OK" to save DOB</t>
+  </si>
+  <si>
+    <t>Edit Date Of Birth(DOB)</t>
+  </si>
+  <si>
+    <t>DOB will be changed</t>
+  </si>
+  <si>
+    <t>1.2.1.13</t>
+  </si>
+  <si>
+    <t>1.2.1.14</t>
+  </si>
+  <si>
+    <t>Save Gender</t>
+  </si>
+  <si>
+    <t>Click "OK" to save Gender</t>
+  </si>
+  <si>
+    <t>Gender will be changed</t>
+  </si>
+  <si>
+    <t>1.2.1.15</t>
+  </si>
+  <si>
+    <t>1.2.1.16</t>
+  </si>
+  <si>
+    <t>Save Address</t>
+  </si>
+  <si>
+    <t>Click "OK" to save Address</t>
+  </si>
+  <si>
+    <t>Address will be changed</t>
+  </si>
+  <si>
+    <t>1.2.1.17</t>
+  </si>
+  <si>
+    <t>1.2.1.18</t>
+  </si>
+  <si>
+    <t>1.2.1.19</t>
+  </si>
+  <si>
+    <t>Input new password in "Password" textbox</t>
+  </si>
+  <si>
+    <t>ReInput new password in "Confirm Password" textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Click "Save" button </t>
+  </si>
+  <si>
+    <t>- Web title: Edit profile
+- Display normally, there is not push, breaking font
+- Display text, textbox, button, color, background and arrangement</t>
   </si>
 </sst>
 </file>
@@ -3151,6 +3226,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3171,24 +3264,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3590,22 +3665,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133886</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3616,29 +3691,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="400050"/>
-          <a:ext cx="3955935" cy="3971925"/>
+          <a:off x="1781175" y="914400"/>
+          <a:ext cx="3839111" cy="4105848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6329,9 +6393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6349,14 +6411,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6371,57 +6433,57 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="C4" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="C5" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6444,10 +6506,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6463,12 +6525,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="110" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6477,13 +6539,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6491,8 +6553,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6500,8 +6562,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6509,8 +6571,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6518,8 +6580,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6527,8 +6589,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6536,6 +6598,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6543,12 +6611,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6562,10 +6624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6686,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6755,10 +6817,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6786,7 +6848,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6835,7 +6897,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6847,10 +6909,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
@@ -6863,7 +6925,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6875,10 +6937,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
@@ -6891,7 +6953,7 @@
       <c r="E15" s="56"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6903,13 +6965,13 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
@@ -6919,7 +6981,7 @@
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6931,23 +6993,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63" t="s">
-        <v>172</v>
+      <c r="D17" s="49"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62" t="s">
+        <v>158</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6959,23 +7021,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63" t="s">
-        <v>173</v>
+        <v>146</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62" t="s">
+        <v>158</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6986,24 +7048,24 @@
       <c r="J18" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+      <c r="K18" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63" t="s">
-        <v>174</v>
+        <v>148</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62" t="s">
+        <v>181</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -7014,24 +7076,24 @@
       <c r="J19" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+      <c r="K19" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62" t="s">
         <v>159</v>
-      </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63" t="s">
-        <v>175</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -7042,24 +7104,24 @@
       <c r="J20" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+      <c r="K20" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D21" s="60"/>
       <c r="E21" s="64"/>
       <c r="F21" s="63"/>
       <c r="G21" s="63" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>35</v>
@@ -7070,24 +7132,24 @@
       <c r="J21" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+      <c r="K21" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63" t="s">
-        <v>177</v>
+        <v>153</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7098,24 +7160,24 @@
       <c r="J22" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" s="56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
+      <c r="K22" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" s="62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="64"/>
       <c r="F23" s="63"/>
       <c r="G23" s="63" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>35</v>
@@ -7127,23 +7189,23 @@
         <v>37</v>
       </c>
       <c r="K23" s="59" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="44" customFormat="1" ht="27">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63" t="s">
-        <v>166</v>
+        <v>156</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>35</v>
@@ -7154,42 +7216,52 @@
       <c r="J24" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="44" customFormat="1">
+      <c r="K24" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" s="62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="55"/>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="27">
+      <c r="E25" s="64"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
-      <c r="C26" s="48" t="s">
-        <v>49</v>
+      <c r="C26" s="49" t="s">
+        <v>196</v>
       </c>
       <c r="D26" s="49"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56" t="s">
-        <v>137</v>
+      <c r="E26" s="56"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62" t="s">
+        <v>197</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7200,134 +7272,222 @@
       <c r="J26" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="27">
+      <c r="K26" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" s="62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="44" customFormat="1" ht="27">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="44" customFormat="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="55"/>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1" ht="27">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="L33" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="44" customFormat="1" ht="27">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="44" customFormat="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-    </row>
-    <row r="29" spans="1:12" s="44" customFormat="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="73"/>
-    </row>
-    <row r="30" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="73"/>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-    </row>
-    <row r="32" spans="1:12" s="44" customFormat="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="73"/>
-    </row>
-    <row r="33" spans="1:12" s="44" customFormat="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="73"/>
-    </row>
-    <row r="34" spans="1:12" s="44" customFormat="1">
-      <c r="A34" s="65"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="56" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1">
       <c r="A35" s="65"/>
-      <c r="B35" s="74"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="66"/>
       <c r="D35" s="66"/>
       <c r="E35" s="67"/>
@@ -7339,21 +7499,8 @@
       <c r="K35" s="67"/>
       <c r="L35" s="67"/>
     </row>
-    <row r="36" spans="1:12" s="44" customFormat="1">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="73"/>
-    </row>
-    <row r="37" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="36" spans="1:12" s="44" customFormat="1"/>
+    <row r="37" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A37" s="65"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66"/>
@@ -7367,19 +7514,19 @@
       <c r="K37" s="67"/>
       <c r="L37" s="73"/>
     </row>
-    <row r="38" spans="1:12" s="44" customFormat="1">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
+    <row r="38" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="66"/>
       <c r="D38" s="66"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="66"/>
       <c r="I38" s="68"/>
       <c r="J38" s="69"/>
       <c r="K38" s="67"/>
-      <c r="L38" s="73"/>
+      <c r="L38" s="67"/>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1">
       <c r="A39" s="65"/>
@@ -7393,7 +7540,7 @@
       <c r="I39" s="68"/>
       <c r="J39" s="69"/>
       <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
+      <c r="L39" s="73"/>
     </row>
     <row r="40" spans="1:12" s="44" customFormat="1">
       <c r="A40" s="65"/>
@@ -7407,25 +7554,25 @@
       <c r="I40" s="68"/>
       <c r="J40" s="69"/>
       <c r="K40" s="67"/>
-      <c r="L40" s="75"/>
+      <c r="L40" s="73"/>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1">
       <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="66"/>
       <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
       <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="66"/>
       <c r="D42" s="66"/>
       <c r="E42" s="67"/>
@@ -7434,8 +7581,8 @@
       <c r="H42" s="66"/>
       <c r="I42" s="68"/>
       <c r="J42" s="69"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
     </row>
     <row r="43" spans="1:12" s="44" customFormat="1">
       <c r="A43" s="65"/>
@@ -7448,7 +7595,7 @@
       <c r="H43" s="66"/>
       <c r="I43" s="68"/>
       <c r="J43" s="69"/>
-      <c r="K43" s="73"/>
+      <c r="K43" s="67"/>
       <c r="L43" s="73"/>
     </row>
     <row r="44" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
@@ -7462,7 +7609,7 @@
       <c r="H44" s="66"/>
       <c r="I44" s="68"/>
       <c r="J44" s="69"/>
-      <c r="K44" s="73"/>
+      <c r="K44" s="67"/>
       <c r="L44" s="73"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1">
@@ -7472,11 +7619,11 @@
       <c r="D45" s="66"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
-      <c r="G45" s="72"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="66"/>
       <c r="I45" s="68"/>
       <c r="J45" s="69"/>
-      <c r="K45" s="73"/>
+      <c r="K45" s="67"/>
       <c r="L45" s="73"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1">
@@ -7490,8 +7637,8 @@
       <c r="H46" s="66"/>
       <c r="I46" s="68"/>
       <c r="J46" s="69"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
     </row>
     <row r="47" spans="1:12" s="44" customFormat="1">
       <c r="A47" s="65"/>
@@ -7504,17 +7651,17 @@
       <c r="H47" s="66"/>
       <c r="I47" s="68"/>
       <c r="J47" s="69"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="75"/>
     </row>
     <row r="48" spans="1:12" s="44" customFormat="1">
       <c r="A48" s="65"/>
       <c r="B48" s="66"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="67"/>
       <c r="F48" s="67"/>
-      <c r="G48" s="72"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="66"/>
       <c r="I48" s="68"/>
       <c r="J48" s="69"/>
@@ -7549,7 +7696,7 @@
       <c r="K50" s="73"/>
       <c r="L50" s="73"/>
     </row>
-    <row r="51" spans="1:12" s="44" customFormat="1">
+    <row r="51" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A51" s="65"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
@@ -7564,8 +7711,8 @@
       <c r="L51" s="73"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="66"/>
       <c r="D52" s="66"/>
       <c r="E52" s="67"/>
@@ -7607,21 +7754,21 @@
     </row>
     <row r="55" spans="1:12" s="44" customFormat="1">
       <c r="A55" s="65"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
     </row>
     <row r="56" spans="1:12" s="44" customFormat="1">
       <c r="A56" s="65"/>
-      <c r="B56" s="74"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="66"/>
       <c r="D56" s="66"/>
       <c r="E56" s="67"/>
@@ -7630,12 +7777,12 @@
       <c r="H56" s="66"/>
       <c r="I56" s="68"/>
       <c r="J56" s="69"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
     </row>
     <row r="57" spans="1:12" s="44" customFormat="1">
       <c r="A57" s="65"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66"/>
       <c r="E57" s="67"/>
@@ -7644,12 +7791,12 @@
       <c r="H57" s="66"/>
       <c r="I57" s="68"/>
       <c r="J57" s="69"/>
-      <c r="K57" s="67"/>
+      <c r="K57" s="73"/>
       <c r="L57" s="73"/>
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
       <c r="A58" s="65"/>
-      <c r="B58" s="74"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="66"/>
       <c r="D58" s="66"/>
       <c r="E58" s="67"/>
@@ -7658,64 +7805,64 @@
       <c r="H58" s="66"/>
       <c r="I58" s="68"/>
       <c r="J58" s="69"/>
-      <c r="K58" s="67"/>
+      <c r="K58" s="73"/>
       <c r="L58" s="73"/>
     </row>
     <row r="59" spans="1:12" s="44" customFormat="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="74"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="66"/>
       <c r="D59" s="66"/>
       <c r="E59" s="67"/>
       <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="66"/>
       <c r="I59" s="68"/>
       <c r="J59" s="69"/>
-      <c r="K59" s="67"/>
+      <c r="K59" s="73"/>
       <c r="L59" s="73"/>
     </row>
     <row r="60" spans="1:12" s="44" customFormat="1">
       <c r="A60" s="65"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="66"/>
       <c r="E60" s="67"/>
       <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="66"/>
       <c r="I60" s="68"/>
       <c r="J60" s="69"/>
-      <c r="K60" s="67"/>
+      <c r="K60" s="73"/>
       <c r="L60" s="73"/>
     </row>
     <row r="61" spans="1:12" s="44" customFormat="1">
       <c r="A61" s="65"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="66"/>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
+      <c r="G61" s="72"/>
       <c r="H61" s="66"/>
       <c r="I61" s="68"/>
       <c r="J61" s="69"/>
-      <c r="K61" s="67"/>
+      <c r="K61" s="73"/>
       <c r="L61" s="73"/>
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
       <c r="A62" s="65"/>
       <c r="B62" s="74"/>
-      <c r="C62" s="74"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="66"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="73"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
       <c r="A63" s="65"/>
@@ -7724,42 +7871,42 @@
       <c r="D63" s="66"/>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
+      <c r="G63" s="72"/>
       <c r="H63" s="66"/>
       <c r="I63" s="68"/>
       <c r="J63" s="69"/>
       <c r="K63" s="67"/>
-      <c r="L63" s="73"/>
+      <c r="L63" s="67"/>
     </row>
     <row r="64" spans="1:12" s="44" customFormat="1">
       <c r="A64" s="65"/>
-      <c r="B64" s="66"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="66"/>
       <c r="D64" s="66"/>
       <c r="E64" s="67"/>
       <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="66"/>
       <c r="I64" s="68"/>
       <c r="J64" s="69"/>
       <c r="K64" s="67"/>
       <c r="L64" s="73"/>
     </row>
-    <row r="65" spans="1:13" s="44" customFormat="1">
+    <row r="65" spans="1:12" s="44" customFormat="1">
       <c r="A65" s="65"/>
       <c r="B65" s="74"/>
       <c r="C65" s="66"/>
       <c r="D65" s="66"/>
       <c r="E65" s="67"/>
       <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
+      <c r="G65" s="72"/>
       <c r="H65" s="66"/>
       <c r="I65" s="68"/>
       <c r="J65" s="69"/>
       <c r="K65" s="67"/>
       <c r="L65" s="73"/>
     </row>
-    <row r="66" spans="1:13" s="44" customFormat="1">
+    <row r="66" spans="1:12" s="44" customFormat="1">
       <c r="A66" s="65"/>
       <c r="B66" s="74"/>
       <c r="C66" s="66"/>
@@ -7773,11 +7920,11 @@
       <c r="K66" s="67"/>
       <c r="L66" s="73"/>
     </row>
-    <row r="67" spans="1:13" s="44" customFormat="1">
+    <row r="67" spans="1:12" s="44" customFormat="1">
       <c r="A67" s="65"/>
       <c r="B67" s="74"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="66"/>
       <c r="E67" s="67"/>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
@@ -7785,257 +7932,253 @@
       <c r="I67" s="68"/>
       <c r="J67" s="69"/>
       <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-    </row>
-    <row r="68" spans="1:13" s="44" customFormat="1">
+      <c r="L67" s="73"/>
+    </row>
+    <row r="68" spans="1:12" s="44" customFormat="1">
       <c r="A68" s="65"/>
       <c r="B68" s="74"/>
-      <c r="C68" s="69"/>
+      <c r="C68" s="74"/>
       <c r="D68" s="66"/>
-      <c r="E68" s="72"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
       <c r="H68" s="66"/>
       <c r="I68" s="68"/>
       <c r="J68" s="69"/>
       <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-    </row>
-    <row r="69" spans="1:13" s="44" customFormat="1">
+      <c r="L68" s="73"/>
+    </row>
+    <row r="69" spans="1:12" s="44" customFormat="1">
       <c r="A69" s="65"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="69"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="66"/>
-      <c r="E69" s="72"/>
+      <c r="E69" s="67"/>
       <c r="F69" s="67"/>
       <c r="G69" s="67"/>
       <c r="H69" s="66"/>
       <c r="I69" s="68"/>
       <c r="J69" s="69"/>
       <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-    </row>
-    <row r="70" spans="1:13" s="44" customFormat="1">
+      <c r="L69" s="73"/>
+    </row>
+    <row r="70" spans="1:12" s="44" customFormat="1">
       <c r="A70" s="65"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="69"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="66"/>
-      <c r="E70" s="72"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="67"/>
-      <c r="G70" s="72"/>
+      <c r="G70" s="67"/>
       <c r="H70" s="66"/>
       <c r="I70" s="68"/>
       <c r="J70" s="69"/>
-      <c r="K70" s="73"/>
-      <c r="L70" s="67"/>
-    </row>
-    <row r="71" spans="1:13" s="44" customFormat="1">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="69"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="73"/>
+    </row>
+    <row r="71" spans="1:12" s="44" customFormat="1">
+      <c r="A71" s="65"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="66"/>
-      <c r="E71" s="72"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="67"/>
-      <c r="G71" s="72"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="66"/>
       <c r="I71" s="68"/>
       <c r="J71" s="69"/>
       <c r="K71" s="67"/>
-      <c r="L71" s="67"/>
-    </row>
-    <row r="72" spans="1:13" s="44" customFormat="1">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="69"/>
+      <c r="L71" s="73"/>
+    </row>
+    <row r="72" spans="1:12" s="44" customFormat="1">
+      <c r="A72" s="65"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="66"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
       <c r="H72" s="66"/>
       <c r="I72" s="68"/>
       <c r="J72" s="69"/>
       <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-    </row>
-    <row r="73" spans="1:13" s="44" customFormat="1">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
+      <c r="L72" s="73"/>
+    </row>
+    <row r="73" spans="1:12" s="44" customFormat="1">
+      <c r="A73" s="65"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="66"/>
       <c r="I73" s="68"/>
       <c r="J73" s="69"/>
       <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="70"/>
-    </row>
-    <row r="75" spans="1:13" s="44" customFormat="1">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
+      <c r="L73" s="73"/>
+    </row>
+    <row r="74" spans="1:12" s="44" customFormat="1">
+      <c r="A74" s="65"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+    </row>
+    <row r="75" spans="1:12" s="44" customFormat="1">
+      <c r="A75" s="65"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="69"/>
       <c r="D75" s="66"/>
-      <c r="E75" s="77"/>
+      <c r="E75" s="72"/>
       <c r="F75" s="67"/>
-      <c r="G75" s="77"/>
+      <c r="G75" s="67"/>
       <c r="H75" s="66"/>
       <c r="I75" s="68"/>
       <c r="J75" s="69"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
-    </row>
-    <row r="76" spans="1:13" s="44" customFormat="1">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="77"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+    </row>
+    <row r="76" spans="1:12" s="44" customFormat="1">
+      <c r="A76" s="65"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="72"/>
       <c r="F76" s="67"/>
-      <c r="G76" s="77"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="66"/>
       <c r="I76" s="68"/>
       <c r="J76" s="69"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="77"/>
-    </row>
-    <row r="77" spans="1:13" s="44" customFormat="1">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
+    </row>
+    <row r="77" spans="1:12" s="44" customFormat="1">
+      <c r="A77" s="65"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="69"/>
       <c r="D77" s="66"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="77"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="72"/>
       <c r="H77" s="66"/>
       <c r="I77" s="68"/>
       <c r="J77" s="69"/>
-      <c r="K77" s="78"/>
-      <c r="L77" s="77"/>
-    </row>
-    <row r="78" spans="1:13" s="44" customFormat="1">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="67"/>
+    </row>
+    <row r="78" spans="1:12" s="44" customFormat="1">
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="69"/>
       <c r="D78" s="66"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="72"/>
       <c r="H78" s="66"/>
       <c r="I78" s="68"/>
       <c r="J78" s="69"/>
-      <c r="K78" s="78"/>
-      <c r="L78" s="77"/>
-    </row>
-    <row r="79" spans="1:13" s="44" customFormat="1">
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
+    </row>
+    <row r="79" spans="1:12" s="44" customFormat="1">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="77"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
       <c r="H79" s="66"/>
       <c r="I79" s="68"/>
       <c r="J79" s="69"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="77"/>
-    </row>
-    <row r="80" spans="1:13" s="44" customFormat="1">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="70"/>
-      <c r="M80" s="37"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="67"/>
+    </row>
+    <row r="80" spans="1:12" s="44" customFormat="1">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
     </row>
     <row r="81" spans="1:13" s="44" customFormat="1">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
-      <c r="C81" s="66"/>
+      <c r="C81" s="69"/>
       <c r="D81" s="66"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="78"/>
-      <c r="L81" s="77"/>
-      <c r="M81" s="37"/>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="71"/>
+      <c r="L81" s="70"/>
+    </row>
+    <row r="82" spans="1:13" s="44" customFormat="1">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="66"/>
       <c r="E82" s="77"/>
       <c r="F82" s="67"/>
       <c r="G82" s="77"/>
       <c r="H82" s="66"/>
       <c r="I82" s="68"/>
       <c r="J82" s="69"/>
-      <c r="K82" s="78"/>
+      <c r="K82" s="77"/>
       <c r="L82" s="77"/>
-      <c r="M82" s="44"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="70"/>
-    </row>
-    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A84" s="65"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
+    </row>
+    <row r="83" spans="1:13" s="44" customFormat="1">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="77"/>
+    </row>
+    <row r="84" spans="1:13" s="44" customFormat="1">
+      <c r="A84" s="70"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="66"/>
       <c r="E84" s="77"/>
-      <c r="F84" s="67"/>
+      <c r="F84" s="77"/>
       <c r="G84" s="77"/>
       <c r="H84" s="66"/>
       <c r="I84" s="68"/>
       <c r="J84" s="69"/>
       <c r="K84" s="78"/>
       <c r="L84" s="77"/>
-      <c r="M84" s="37"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="65"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
+    </row>
+    <row r="85" spans="1:13" s="44" customFormat="1">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="66"/>
       <c r="E85" s="77"/>
-      <c r="F85" s="67"/>
+      <c r="F85" s="77"/>
       <c r="G85" s="77"/>
       <c r="H85" s="66"/>
       <c r="I85" s="68"/>
@@ -8043,170 +8186,170 @@
       <c r="K85" s="78"/>
       <c r="L85" s="77"/>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="70"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="70"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="79"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-    </row>
-    <row r="88" spans="1:13">
+    <row r="86" spans="1:13" s="44" customFormat="1">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="77"/>
+    </row>
+    <row r="87" spans="1:13" s="44" customFormat="1">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="71"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="37"/>
+    </row>
+    <row r="88" spans="1:13" s="44" customFormat="1">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="67"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="77"/>
       <c r="F88" s="67"/>
-      <c r="G88" s="72"/>
+      <c r="G88" s="77"/>
       <c r="H88" s="66"/>
       <c r="I88" s="68"/>
       <c r="J88" s="69"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67"/>
-      <c r="M88" s="44"/>
+      <c r="K88" s="78"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="37"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="70"/>
-    </row>
-    <row r="90" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="78"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="44"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="37"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="71"/>
+      <c r="L90" s="70"/>
+    </row>
+    <row r="91" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A91" s="65"/>
+      <c r="B91" s="74"/>
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="44"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="69"/>
+      <c r="K91" s="78"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="37"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="74"/>
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-    </row>
-    <row r="93" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="37"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="77"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="70"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="44"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="79"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="67"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
       <c r="M95" s="44"/>
     </row>
-    <row r="96" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="96" spans="1:13">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
-      <c r="M96" s="37"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="70"/>
     </row>
     <row r="97" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A97" s="65"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -8218,8 +8361,10 @@
       <c r="M97" s="37"/>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="65"/>
-      <c r="B98" s="66"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -8228,8 +8373,13 @@
       <c r="J98" s="38"/>
       <c r="K98" s="38"/>
       <c r="L98" s="38"/>
+      <c r="M98" s="44"/>
     </row>
     <row r="99" spans="1:13">
+      <c r="A99" s="38"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -8239,35 +8389,130 @@
       <c r="K99" s="38"/>
       <c r="L99" s="38"/>
     </row>
-    <row r="100" spans="1:13">
-      <c r="E100" s="72"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="68"/>
-      <c r="J100" s="69"/>
-      <c r="K100" s="67"/>
-      <c r="L100" s="67"/>
+    <row r="100" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A100" s="38"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="37"/>
     </row>
     <row r="101" spans="1:13">
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="68"/>
-      <c r="J101" s="69"/>
-      <c r="K101" s="67"/>
-      <c r="L101" s="67"/>
-    </row>
-    <row r="105" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="106" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="107" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="108" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="110" spans="1:13" ht="18" customHeight="1"/>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="115" ht="30" customHeight="1"/>
-    <row r="119" ht="44.25" customHeight="1"/>
-    <row r="120" ht="45" customHeight="1"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="44"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="38"/>
+      <c r="B102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="44"/>
+    </row>
+    <row r="103" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="37"/>
+    </row>
+    <row r="104" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A104" s="65"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="37"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="65"/>
+      <c r="B105" s="66"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="E107" s="72"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="68"/>
+      <c r="J107" s="69"/>
+      <c r="K107" s="67"/>
+      <c r="L107" s="67"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="69"/>
+      <c r="K108" s="67"/>
+      <c r="L108" s="67"/>
+    </row>
+    <row r="112" spans="1:13" ht="37.5" customHeight="1"/>
+    <row r="113" ht="37.5" customHeight="1"/>
+    <row r="114" ht="37.5" customHeight="1"/>
+    <row r="115" ht="37.5" customHeight="1"/>
+    <row r="117" ht="18" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="122" ht="30" customHeight="1"/>
+    <row r="126" ht="44.25" customHeight="1"/>
+    <row r="127" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8285,19 +8530,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I86 I55 I83 I80 I74 I89">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I93 I62 I90 I87 I81 I96">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J86 J55 J83 J80 J74 J89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J93 J62 J90 J87 J81 J96">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H100:H101 H35:H86 H88:H89 H8:H10 H13:H33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H107:H108 H42:H93 H95:H96 H8:H10 H37:H40 H13:H35">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I100:I101 I35:I54 I56:I73 I84:I85 I81:I82 I75:I79 I88 I8:I10 I13:I33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I107:I108 I42:I61 I63:I80 I91:I92 I88:I89 I82:I86 I95 I8:I10 I37:I40 I13:I35">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J75:J79 J81:J82 J88 J84:J85 J56:J73 J35:J54 J100:J101 J8:J10 J13:J33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J82:J86 J88:J89 J95 J91:J92 J63:J80 J42:J61 J107:J108 J8:J10 J37:J40 J13:J35">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8311,8 +8556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
